--- a/Inputs/Sukoon_Health_Plus/benefits.xlsx
+++ b/Inputs/Sukoon_Health_Plus/benefits.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="117">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -35,8 +35,7 @@
     <t xml:space="preserve">Pro</t>
   </si>
   <si>
-    <t xml:space="preserve">Max
-</t>
+    <t xml:space="preserve">Max</t>
   </si>
   <si>
     <t xml:space="preserve">Home</t>
@@ -52,6 +51,21 @@
   </si>
   <si>
     <t xml:space="preserve">Annual Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 50,00,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 3,0,00,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 5,00,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 2,50,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 1,50,000</t>
   </si>
   <si>
     <t xml:space="preserve">Geographical Coverage</t>
@@ -383,7 +397,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;AED&quot;#,##0_);[RED]&quot;(AED&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -532,7 +546,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -557,19 +571,31 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,12 +627,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -721,7 +747,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="C2:H2 C6"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -764,90 +790,90 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="125.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="10" customFormat="true" ht="125.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="E2" s="9" t="n">
-        <v>500000</v>
-      </c>
-      <c r="F2" s="8" t="n">
-        <v>250000</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <v>250000</v>
-      </c>
-      <c r="H2" s="8" t="n">
-        <v>150000</v>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>12</v>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>19</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -857,89 +883,89 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>23</v>
+      <c r="B6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>28</v>
+      <c r="A8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -950,140 +976,140 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>33</v>
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>33</v>
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>36</v>
+      <c r="B13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>38</v>
+      <c r="B14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1096,164 +1122,164 @@
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>41</v>
+      <c r="B16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>41</v>
+      <c r="B17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>44</v>
+      <c r="B18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>46</v>
+      <c r="B19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>44</v>
+      <c r="B20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>49</v>
+        <v>29</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1263,115 +1289,115 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="13" t="s">
+      <c r="A23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>56</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>58</v>
+        <v>29</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>63</v>
+      <c r="B25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>65</v>
+      <c r="B26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>66</v>
+        <v>25</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1382,62 +1408,62 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>72</v>
+      <c r="C28" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>74</v>
+        <v>29</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>75</v>
+        <v>25</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1448,166 +1474,166 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>78</v>
+        <v>29</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>78</v>
+        <v>29</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>78</v>
+      <c r="G33" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>90</v>
+      <c r="B34" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>92</v>
+        <v>29</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>92</v>
+      <c r="B36" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>94</v>
+      <c r="B37" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1620,60 +1646,60 @@
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>92</v>
+      <c r="B38" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>92</v>
+      <c r="B39" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>97</v>
+        <v>25</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1684,262 +1710,262 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>99</v>
+        <v>29</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>99</v>
+        <v>29</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" s="24" customFormat="true" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" s="27" customFormat="true" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>103</v>
+      <c r="B44" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>105</v>
+      <c r="B45" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>107</v>
+      <c r="B46" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>105</v>
+      <c r="B47" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>105</v>
+      <c r="B48" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>105</v>
+      <c r="D49" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>105</v>
+      <c r="B50" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2922,10 +2948,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="C2:H2 C6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="10.43"/>
   </cols>
